--- a/biology/Zoologie/Bracon_(hyménoptère)/Bracon_(hyménoptère).xlsx
+++ b/biology/Zoologie/Bracon_(hyménoptère)/Bracon_(hyménoptère).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bracon_(hym%C3%A9nopt%C3%A8re)</t>
+          <t>Bracon_(hyménoptère)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bracon est un genre d'insectes de l'ordre des hyménoptères de la famille des Braconidae, de la sous-famille des Braconinae et de la tribu des Braconini. C'est le genre type de sa famille.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bracon_(hym%C3%A9nopt%C3%A8re)</t>
+          <t>Bracon_(hyménoptère)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Asiabracon
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bracon_(hym%C3%A9nopt%C3%A8re)</t>
+          <t>Bracon_(hyménoptère)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 †Bracon abstractus Brues 1910
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bracon_(hym%C3%A9nopt%C3%A8re)</t>
+          <t>Bracon_(hyménoptère)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>Liens  externes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
